--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_7_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_7_sawtooth_0.1_.xlsx
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.32000000000021</v>
+        <v>23.8900000000003</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>4.172681935554756e-05</v>
+        <v>0.0002881931882366962</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007132253454331772</v>
+        <v>0.003682274204135995</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.127995225129843</v>
+        <v>4.619230259713326</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.0985472207442672, 8.157443229515419]</t>
+          <t>[1.8369814559780275, 7.401479063448625]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0009591077012656157</v>
+        <v>0.001196164188009829</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001918215402531231</v>
+        <v>0.002392328376019659</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.9308422677303092</v>
+        <v>0.2830263651882685</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.496894998106849, -0.3647895373537695]</t>
+          <t>[-0.42139481039142623, 0.9874475407679633]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.001330285902899853</v>
+        <v>0.4300220547650238</v>
       </c>
       <c r="R2" t="n">
-        <v>0.002660571805799705</v>
+        <v>0.4300220547650238</v>
       </c>
       <c r="S2" t="n">
-        <v>13.21839614899481</v>
+        <v>13.75867878657695</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.63976602712592, 14.797026270863707]</t>
+          <t>[12.183508275256614, 15.333849297897281]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>3.454814814814846</v>
+        <v>22.81387387387416</v>
       </c>
       <c r="X2" t="n">
-        <v>1.353913913913924</v>
+        <v>20.13551551551576</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.555715715715767</v>
+        <v>25.49223223223256</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.07000000000032</v>
+        <v>24.5400000000004</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000660794990321345</v>
+        <v>0.006313871695905693</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002336054763771495</v>
+        <v>0.01622267331555555</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.778884769139203</v>
+        <v>4.459126342152437</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[1.6866325522565795, 9.871136986021826]</t>
+          <t>[0.8933080048093451, 8.024944679495528]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.005805124387536109</v>
+        <v>0.01443107058536386</v>
       </c>
       <c r="N3" t="n">
-        <v>0.005805124387536109</v>
+        <v>0.01443107058536386</v>
       </c>
       <c r="O3" t="n">
-        <v>0.748447499053424</v>
+        <v>2.496921488438735</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.14465791998511612, 1.3522370781217319]</t>
+          <t>[1.7421845146033483, 3.251658462274121]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.0153009571435796</v>
+        <v>3.343352261708787e-10</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0153009571435796</v>
+        <v>6.686704523417575e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>14.68157545633595</v>
+        <v>14.25723220270636</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[12.608665908575606, 16.754485004096292]</t>
+          <t>[12.319546565352947, 16.194917840059777]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.20280280280309</v>
+        <v>14.78786786786811</v>
       </c>
       <c r="X3" t="n">
-        <v>18.88976976977003</v>
+        <v>11.84012012012031</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.51583583583615</v>
+        <v>17.73561561561591</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_7_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_7_sawtooth_0.1_.xlsx
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.8900000000003</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002881931882366962</v>
+        <v>1.148035075992926e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003682274204135995</v>
+        <v>0.0002367558819027841</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.619230259713326</v>
+        <v>5.715823598659327</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.8369814559780275, 7.401479063448625]</t>
+          <t>[2.6194809212029035, 8.81216627611575]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.001196164188009829</v>
+        <v>0.0003225867680729522</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002392328376019659</v>
+        <v>0.0004036166802432462</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2830263651882685</v>
+        <v>-1.044052813805617</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.42139481039142623, 0.9874475407679633]</t>
+          <t>[-1.610105544182157, -0.4780000834290776]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.4300220547650238</v>
+        <v>0.0003262807417643288</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4300220547650238</v>
+        <v>0.0006525614835286575</v>
       </c>
       <c r="S2" t="n">
-        <v>13.75867878657695</v>
+        <v>13.69180264526491</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.183508275256614, 15.333849297897281]</t>
+          <t>[12.040753362376238, 15.342851928153591]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>22.81387387387416</v>
+        <v>3.806866866866891</v>
       </c>
       <c r="X2" t="n">
-        <v>20.13551551551576</v>
+        <v>1.742902902902912</v>
       </c>
       <c r="Y2" t="n">
-        <v>25.49223223223256</v>
+        <v>5.870830830830869</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.5400000000004</v>
+        <v>23.61000000000025</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006313871695905693</v>
+        <v>9.885403477605248e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01622267331555555</v>
+        <v>0.0004637245800700597</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>4.459126342152437</v>
+        <v>5.86001420053177</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[0.8933080048093451, 8.024944679495528]</t>
+          <t>[2.638205581931251, 9.08182281913229]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.01443107058536386</v>
+        <v>0.0004036166802432462</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01443107058536386</v>
+        <v>0.0004036166802432462</v>
       </c>
       <c r="O3" t="n">
-        <v>2.496921488438735</v>
+        <v>-0.1886842434588463</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.7421845146033483, 3.251658462274121]</t>
+          <t>[-0.8427896207828471, 0.4654211338651546]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3.343352261708787e-10</v>
+        <v>0.5706277299766738</v>
       </c>
       <c r="R3" t="n">
-        <v>6.686704523417575e-10</v>
+        <v>0.5706277299766738</v>
       </c>
       <c r="S3" t="n">
-        <v>14.25723220270636</v>
+        <v>13.36749129783822</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[12.319546565352947, 16.194917840059777]</t>
+          <t>[11.50240007393402, 15.232582521742412]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>14.78786786786811</v>
+        <v>0.7090090090090158</v>
       </c>
       <c r="X3" t="n">
-        <v>11.84012012012031</v>
+        <v>-1.748888888888908</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.73561561561591</v>
+        <v>3.166906906906939</v>
       </c>
     </row>
   </sheetData>
